--- a/resources/views/Pages/画面仕様書.xlsx
+++ b/resources/views/Pages/画面仕様書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagano-m.000\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\xampp\htdocs\laravel\resources\views\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBD505D-D62B-4702-870B-5D0986E4722C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EC37DA-218D-4754-A4A8-30CA441A3A0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="7" xr2:uid="{2FF48551-4369-46BC-8850-9163D5BC3F95}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1088,6 +1088,62 @@
     </rPh>
     <rPh sb="37" eb="39">
       <t>クギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・合計金額：税抜きの合計金額を表示・入力します。明細の金額を自動的に計算します。</t>
+    <rPh sb="1" eb="3">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　修正された場合は修正された内容を</t>
+    <rPh sb="1" eb="3">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9653,8 +9709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F1B422-7427-4B28-A9F2-E6CE214A07E5}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10042,7 +10098,9 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -10055,7 +10113,9 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="D28" s="10"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>

--- a/resources/views/Pages/画面仕様書.xlsx
+++ b/resources/views/Pages/画面仕様書.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\xampp\htdocs\laravel\resources\views\Pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\resources\views\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EC37DA-218D-4754-A4A8-30CA441A3A0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD06DB5-5859-4DAB-9CFC-34E3745D1718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="7" xr2:uid="{2FF48551-4369-46BC-8850-9163D5BC3F95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{2FF48551-4369-46BC-8850-9163D5BC3F95}"/>
   </bookViews>
   <sheets>
-    <sheet name="遷移図" sheetId="1" r:id="rId1"/>
-    <sheet name="ログイン" sheetId="2" r:id="rId2"/>
-    <sheet name="ダッシュボード" sheetId="5" r:id="rId3"/>
-    <sheet name="工事一覧" sheetId="6" r:id="rId4"/>
-    <sheet name="工事編集" sheetId="7" r:id="rId5"/>
-    <sheet name="現場編集" sheetId="8" r:id="rId6"/>
-    <sheet name="請求一覧" sheetId="10" r:id="rId7"/>
-    <sheet name="請求明細" sheetId="12" r:id="rId8"/>
+    <sheet name="データリレーション" sheetId="13" r:id="rId1"/>
+    <sheet name="遷移図" sheetId="1" r:id="rId2"/>
+    <sheet name="ログイン" sheetId="2" r:id="rId3"/>
+    <sheet name="ダッシュボード" sheetId="5" r:id="rId4"/>
+    <sheet name="工事一覧" sheetId="6" r:id="rId5"/>
+    <sheet name="工事編集" sheetId="7" r:id="rId6"/>
+    <sheet name="現場編集" sheetId="8" r:id="rId7"/>
+    <sheet name="請求一覧" sheetId="10" r:id="rId8"/>
+    <sheet name="請求明細" sheetId="12" r:id="rId9"/>
+    <sheet name="発注一覧" sheetId="14" r:id="rId10"/>
+    <sheet name="発注一覧 (2)" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1092,58 +1095,844 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・合計金額：税抜きの合計金額を表示・入力します。明細の金額を自動的に計算します。</t>
+    <t>　修正された場合は修正された内容を</t>
     <rPh sb="1" eb="3">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ゼイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>ジドウテキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ケイサン</t>
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　修正された場合は修正された内容を</t>
+    <t>■データの保存</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・データはデータベースに保持する</t>
+    <rPh sb="13" eb="15">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・データベース内部の文字データはUTF-8文字コードのみを使用する。</t>
+    <rPh sb="8" eb="10">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■数値の扱い</t>
     <rPh sb="1" eb="3">
-      <t>シュウセイ</t>
-    </rPh>
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・金額/数量は、誤差丸めの弊害を排除するため、10000倍した整数で記録・計算し、表示は1/10000倍し表示する。（デノミネーション）</t>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゴサ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘイガイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハイジョ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・金額の単位は円のみ</t>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・金額/数量はBigInteger型の整数を使用し、±10兆の範囲で使用できるようにする。</t>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■データの削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■データの更新</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・重要な項目については、変更履歴を付加し、誰が・いつ・どの様に変更したかを追跡できるようにする。</t>
+    <rPh sb="2" eb="4">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■アクセス制御</t>
+    <rPh sb="5" eb="7">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・システムを使用するためにはログインしなければならない</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・ログインするIDで利用者を特定し、利用者毎に役割を付加し、できることを制限できるようにする</t>
+    <rPh sb="11" eb="14">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・データのバックアップを手動/自動で行えるようにする</t>
+    <rPh sb="13" eb="15">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■文字データの扱い</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・他の文字コードへの変換が必要な場合は、システム全体に影響がでないようフロントエンド（クライアント画面）で行う</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・数量の補助単位は相互変換できるようにする</t>
+    <rPh sb="2" eb="4">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　・データの削除は論理削除でおこない、削除された内容を確認できるようにする。</t>
     <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　また、削除された日時と削除を行った利用者も記録する。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・消費税率：消費税率を表示・入力します。デフォルトで１０とし変更できるようにします。</t>
+    <rPh sb="1" eb="4">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・消費税：消費税額を表示・入力します。</t>
+    <rPh sb="1" eb="4">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・合計金額：税抜きの合計金額を表示・入力します。明細の金額を自動的に合算します。</t>
+    <rPh sb="1" eb="3">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガッサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・税込金額：税込金額を表示・入力します。合計金額と消費税を自動的に合算します。</t>
+    <rPh sb="1" eb="3">
+      <t>ゼイコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼイコミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ショウヒゼイ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガッサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・相殺：相殺金額を表示します。変更は相殺する支払請求を選択することで行います。</t>
+    <rPh sb="1" eb="3">
+      <t>ソウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウサイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・値引き：値引き額を表示・入力します。契約金額からの減額として扱います。</t>
+    <rPh sb="1" eb="3">
+      <t>ネビ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネビ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゲンガク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・明細ー項目：請求書の明細に出力する文面を入力します。</t>
+    <rPh sb="1" eb="3">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・明細ー単価：単価を表示・入力します</t>
+    <rPh sb="1" eb="3">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・明細ー数量：数量を表示・入力します。整数・小数の入力が可能です。</t>
+    <rPh sb="1" eb="3">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・明細ー金額：税抜の金額を表示・入力します。</t>
+    <rPh sb="1" eb="3">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・明細ー新規ボタン：明細を追加します</t>
+    <rPh sb="1" eb="3">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・明細ー削除ボタン：明細を削除します。誤って削除しないよう確認して削除します。</t>
+    <rPh sb="1" eb="3">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発注の一覧を表示します</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックすると発注書の明細画面が表示されます。</t>
+    <rPh sb="7" eb="9">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新規ボタン：新規に発注書を作成します。発注先を画面で選択すると明細画面が表示されます。</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ハッチュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・工事：計上する工事を表示します。</t>
+    <rPh sb="1" eb="3">
+      <t>コウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・発注日：発注した日を表示します、</t>
+    <rPh sb="1" eb="3">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・品名：金額の大きい２つの品目を表示します。</t>
+    <rPh sb="1" eb="3">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒンモク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・金額：税込の発注金額を表示します。</t>
+    <rPh sb="1" eb="3">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゼイコミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・納品日：納品された日を表示します。未納の場合は”－”（ハイフン）が表示されます。</t>
+    <rPh sb="1" eb="4">
+      <t>ノウヒンビ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ミノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナイヨウ</t>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1177,7 +1966,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1308,13 +2097,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1357,6 +2177,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1375,6 +2204,3337 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753FB4F7-3711-4C0C-9535-B32955F2F436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="933450"/>
+          <a:ext cx="1847849" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>工事情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>237600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452717</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>235324</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6C983C-196E-4A34-A945-3A67F897862B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1056750" y="1304925"/>
+          <a:ext cx="1586717" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>工種</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>現場情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>237600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452717</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>225799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5238DCAE-4682-41AA-8822-F8BB164953F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1056750" y="1771650"/>
+          <a:ext cx="1586717" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>工種</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>現場情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>237600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452717</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>159124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34711248-A70B-453D-870F-74065945B962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1056750" y="2181225"/>
+          <a:ext cx="1586717" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>工種</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>現場情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6C93D7-F0C2-4645-B89D-04AEF07426C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="942974"/>
+          <a:ext cx="1609726" cy="2628901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>請求書</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319368</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>216274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346661BD-A38D-4229-A387-7212DDA90677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124450" y="1285875"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>請求明細行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328893</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>92449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABBAE03-85E4-4FA7-8674-2B04A5E295B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5133975" y="1876425"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>請求明細行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328893</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D5FCA7-4C4B-43FB-B00A-BABA83E4BF9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5133975" y="2657475"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>請求明細行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49DC9C75-96C7-4A9D-9047-99F9FA33AF6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="942975"/>
+          <a:ext cx="1609726" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入金</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>595593</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>216274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92AE47E9-2A76-4291-A23B-624F093DD7F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="1285875"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入金</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>595593</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>168649</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DCA2589-03CF-4088-BA63-4839413EE3E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="1714500"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入金</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>595593</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9166B58A-B149-47DE-907B-AB8D701EC395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="2657475"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入金</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319368</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="コネクタ: カギ線 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFF9149-7462-4A3A-B35B-63237E9B89C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6491568" y="1465450"/>
+          <a:ext cx="966507" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>595593</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B735D53-6DE7-4942-A823-4E34E5548AC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="2143125"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入金</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328893</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>227200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>151000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="コネクタ: カギ線 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2634704A-5365-4DFD-9DC1-08873A9753CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6501093" y="1894075"/>
+          <a:ext cx="956982" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="コネクタ: カギ線 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380C93B0-0B0E-4464-931A-53FB1852A341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="2066925"/>
+          <a:ext cx="942975" cy="255775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319368</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1480E4FA-D348-4E43-BAA1-209343F434D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124450" y="3057525"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>請求明細行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328893</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>230375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="コネクタ: カギ線 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3618A86D-A1DC-423E-8A27-83C477D10EDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6501093" y="2837050"/>
+          <a:ext cx="956982" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319368</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="コネクタ: カギ線 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FF44A3-85A8-4BC4-B4B8-1CC99B31DF03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6491568" y="2837050"/>
+          <a:ext cx="966507" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452717</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>55750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="コネクタ: カギ線 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499A0231-39B8-4DEE-9A91-05321B428094}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2643467" y="1465450"/>
+          <a:ext cx="1242733" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452717</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>217675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="コネクタ: カギ線 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6BA447-D3C8-46EC-8D8C-791F4C223127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2643467" y="2360800"/>
+          <a:ext cx="1242733" cy="496700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452717</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>217675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="コネクタ: カギ線 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACF36A6-2A7A-4875-B6D6-87137F768511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2643467" y="2360800"/>
+          <a:ext cx="1242733" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>237600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452717</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>206749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E770BBC1-2B14-46C2-A392-E1EDDF980AA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1056750" y="3657600"/>
+          <a:ext cx="1586717" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>工種</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>現場情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5412BE23-3F52-4F60-985F-ACD6D5D511E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="3752849"/>
+          <a:ext cx="1609726" cy="2990851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347943</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1ED30D9-2D43-459A-B850-7C66F199FA98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="4105275"/>
+          <a:ext cx="1367118" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>178174</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1CD579-FDB3-4F87-AA54-C09428542DAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238750" y="5295900"/>
+          <a:ext cx="1200150" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>購買</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452717</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="コネクタ: カギ線 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866A93C7-045E-4465-8C23-BC02F30BA6DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="43" idx="3"/>
+          <a:endCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2643467" y="3837175"/>
+          <a:ext cx="1271308" cy="1096775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9D284A-93F4-4F04-B05E-25AD89446814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="4438650"/>
+          <a:ext cx="1209675" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>出面（社員）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>216274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04526A6F-BAC7-4D22-B83B-48E0B8A2CBC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5248275" y="4857750"/>
+          <a:ext cx="1209675" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>出面（外注）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357468</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458167D0-3A08-4B04-B4BB-718A835169B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5162550" y="5886450"/>
+          <a:ext cx="1367118" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357468</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C94C22-FFED-450F-9208-F82F78BB0CCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5162550" y="6257925"/>
+          <a:ext cx="1367118" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452717</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="コネクタ: カギ線 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7740B5FC-B477-4FC5-8E09-5E40B4476412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="43" idx="3"/>
+          <a:endCxn id="59" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2643467" y="3837175"/>
+          <a:ext cx="1280833" cy="2192150"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452717</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="コネクタ: カギ線 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A071C7-0769-4422-91BB-D441E3572F14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="43" idx="3"/>
+          <a:endCxn id="60" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2643467" y="3837175"/>
+          <a:ext cx="1280833" cy="2563625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2311B9-12BC-4D4C-B5A4-DB3A78FF59B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8543924" y="4200526"/>
+          <a:ext cx="1543051" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>発注</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395568</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>111499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D10D5C6-D1A8-4075-808E-4CF84389676C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629650" y="5229225"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>発注明細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395568</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>111499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93447CC-A9C1-448C-AD55-D9D7ED694D5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629650" y="5705475"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>発注明細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>236725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="コネクタ: カギ線 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF31459-D702-4AB8-8AEE-A540566DA09B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="46" idx="3"/>
+          <a:endCxn id="71" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="5475475"/>
+          <a:ext cx="2190750" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>36700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>170050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="コネクタ: カギ線 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474C959F-DE23-4F1A-9ABF-0D910628D69B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="55" idx="3"/>
+          <a:endCxn id="70" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="5037325"/>
+          <a:ext cx="2171700" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B207985-AEDD-4EEB-BF5F-394DAB79A626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10525125" y="4876799"/>
+          <a:ext cx="1609726" cy="1514476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>支払</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>357468</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F4DB99-FC01-402B-A1E6-671209799AF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648950" y="5219700"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>請求支払</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>357468</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686E750A-9EDF-411C-B3E0-C0DE0689635E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648950" y="5867400"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>請求支払</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395568</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB3E36E2-D70E-47BC-975A-6E8906216481}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629650" y="6105525"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>発注明細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395568</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>160525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>170050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="コネクタ: カギ線 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21EE6726-6CA8-42AD-A5F2-EF6EC3269AFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="70" idx="3"/>
+          <a:endCxn id="82" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9996768" y="5399275"/>
+          <a:ext cx="652182" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395568</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>93850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="コネクタ: カギ線 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F667C992-B29E-4ABA-9A61-418D3AFC7CA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="71" idx="3"/>
+          <a:endCxn id="83" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9996768" y="5885050"/>
+          <a:ext cx="652182" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395568</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>93850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>93850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="コネクタ: カギ線 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C5A9B3-077D-4BEF-AC0F-4236E598CDA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="85" idx="3"/>
+          <a:endCxn id="83" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9996768" y="6046975"/>
+          <a:ext cx="652182" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>405093</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>216274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F38767-EB1C-4AFB-9558-228033593091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="4619625"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>発注明細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="正方形/長方形 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4634CBCE-8430-425B-AD92-27F5CD87AECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="3314700"/>
+          <a:ext cx="1495425" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>相殺</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52668</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="正方形/長方形 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B947E9-AE2A-4C29-92BB-B045B0C3652C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5172075" y="3648075"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>相殺伝票</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319368</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="コネクタ: カギ線 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6554CB-1458-4B89-8F30-34064A460E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="119" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4748493" y="3237100"/>
+          <a:ext cx="423582" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52668</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>36700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="コネクタ: カギ線 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF74EB1C-2FFB-4D13-A543-485B12B25FAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="119" idx="3"/>
+          <a:endCxn id="107" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6539193" y="3827650"/>
+          <a:ext cx="356907" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0D62BF-E655-43B2-835E-F4D299336A67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="21350" b="6939"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="54430" y="353787"/>
+          <a:ext cx="6531428" cy="3003594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>176260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FB2B07-BE08-497F-A6A9-8BC3D408D4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="1580" t="13096" r="303" b="32632"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="54430" y="421821"/>
+          <a:ext cx="6531428" cy="3782153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1709,15 +5869,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146237</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1732,8 +5892,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5934075" y="3810000"/>
-          <a:ext cx="981075" cy="361950"/>
+          <a:off x="5939118" y="3552264"/>
+          <a:ext cx="974912" cy="359149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1972,14 +6132,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>672354</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -1996,7 +6156,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8247530" y="1411941"/>
+          <a:off x="10634383" y="1411941"/>
           <a:ext cx="1367117" cy="359149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2038,14 +6198,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -2062,7 +6222,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10298206" y="1411941"/>
+          <a:off x="12685059" y="1411941"/>
           <a:ext cx="1367118" cy="359149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2104,14 +6264,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>312084</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>648260</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>312084</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>648261</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
@@ -2128,7 +6288,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9254378" y="2117912"/>
+          <a:off x="11641231" y="2117912"/>
           <a:ext cx="1367118" cy="359149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2170,14 +6330,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
@@ -2194,7 +6354,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9244853" y="2581836"/>
+          <a:off x="11631706" y="2581836"/>
           <a:ext cx="1367118" cy="356347"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2236,14 +6396,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
@@ -2260,7 +6420,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9244853" y="3052483"/>
+          <a:off x="11631706" y="3052483"/>
           <a:ext cx="1367118" cy="356347"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2302,16 +6462,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>49306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>616325</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>170330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2326,7 +6486,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9244853" y="3523130"/>
+          <a:off x="11609295" y="3579159"/>
           <a:ext cx="1367118" cy="356347"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2368,16 +6528,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>224119</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>224119</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>202267</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2392,7 +6552,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6891618" y="2117912"/>
+          <a:off x="9849972" y="2431678"/>
           <a:ext cx="1367118" cy="359148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3263,13 +7423,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>672354</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>324972</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>235322</xdr:rowOff>
     </xdr:to>
@@ -3289,8 +7449,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7155237" y="-363912"/>
-          <a:ext cx="346821" cy="3204883"/>
+          <a:off x="8348664" y="-1557338"/>
+          <a:ext cx="346821" cy="5591736"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3323,13 +7483,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>324972</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>235322</xdr:rowOff>
     </xdr:to>
@@ -3349,8 +7509,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8180575" y="-1389250"/>
-          <a:ext cx="346821" cy="5255559"/>
+          <a:off x="9374002" y="-2582676"/>
+          <a:ext cx="346821" cy="7642412"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3447,9 +7607,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182010</xdr:rowOff>
+      <xdr:colOff>212913</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>201985</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3467,8 +7627,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5101984" y="3180211"/>
-          <a:ext cx="1499359" cy="190499"/>
+          <a:off x="5205273" y="2997993"/>
+          <a:ext cx="1254779" cy="212912"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3498,14 +7658,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>683314</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>16809</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>231912</xdr:colOff>
+      <xdr:colOff>231913</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>173727</xdr:rowOff>
     </xdr:to>
@@ -3525,8 +7685,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6412706" y="4234172"/>
-          <a:ext cx="290098" cy="236055"/>
+          <a:off x="6285057" y="4052930"/>
+          <a:ext cx="498138" cy="215104"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3556,16 +7716,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>683314</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>16810</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>231912</xdr:colOff>
+      <xdr:colOff>231914</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>173728</xdr:rowOff>
+      <xdr:rowOff>173726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3583,8 +7743,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6172510" y="4474368"/>
-          <a:ext cx="770490" cy="236055"/>
+          <a:off x="6049734" y="4288253"/>
+          <a:ext cx="968785" cy="215104"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3614,10 +7774,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>683315</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>16809</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -3641,8 +7801,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5932315" y="4714563"/>
-          <a:ext cx="1250881" cy="236055"/>
+          <a:off x="5814410" y="4523577"/>
+          <a:ext cx="1439432" cy="215104"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3968,10 +8128,10 @@
       <xdr:rowOff>179575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>179574</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>224119</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22693</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3990,7 +8150,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6409765" y="1591516"/>
-          <a:ext cx="481853" cy="705970"/>
+          <a:ext cx="3440207" cy="1019736"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4022,16 +8182,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>224119</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>179575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>672355</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78443</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4049,8 +8209,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="7575178" y="1591516"/>
-          <a:ext cx="672353" cy="526396"/>
+          <a:off x="10533531" y="1591516"/>
+          <a:ext cx="100852" cy="840162"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4080,14 +8240,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>672354</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>312084</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>648260</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>179574</xdr:rowOff>
     </xdr:to>
@@ -4107,7 +8267,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8829535" y="1872643"/>
+          <a:off x="11216388" y="1872643"/>
           <a:ext cx="526397" cy="323289"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -4138,14 +8298,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>672354</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
@@ -4165,7 +8325,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8593511" y="2108668"/>
+          <a:off x="10980364" y="2108668"/>
           <a:ext cx="988920" cy="313764"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -4196,14 +8356,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>672355</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>324972</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>302560</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -4223,7 +8383,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8358188" y="2343991"/>
+          <a:off x="10745041" y="2343991"/>
           <a:ext cx="1459567" cy="313764"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -4254,16 +8414,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>672354</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:rowOff>227479</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4281,8 +8441,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8122864" y="2579315"/>
-          <a:ext cx="1930214" cy="313764"/>
+          <a:off x="10470497" y="2618534"/>
+          <a:ext cx="1986243" cy="291353"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4312,14 +8472,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267260</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>267261</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
@@ -4336,7 +8496,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11260231" y="2117912"/>
+          <a:off x="13647084" y="2117912"/>
           <a:ext cx="1367118" cy="359149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4378,14 +8538,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267260</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>267261</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
@@ -4402,7 +8562,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11260231" y="3059206"/>
+          <a:off x="13647084" y="3059206"/>
           <a:ext cx="1367118" cy="359149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4444,14 +8604,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267260</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>267261</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
@@ -4468,7 +8628,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11260231" y="3529853"/>
+          <a:off x="13647084" y="3529853"/>
           <a:ext cx="1367118" cy="359149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4510,14 +8670,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267260</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>267261</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -4534,7 +8694,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11260231" y="4000500"/>
+          <a:off x="13647084" y="4000500"/>
           <a:ext cx="1367118" cy="359149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4576,14 +8736,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267260</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>267261</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -4600,7 +8760,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11260231" y="5412441"/>
+          <a:off x="13647084" y="5412441"/>
           <a:ext cx="1367118" cy="359149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4642,14 +8802,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267260</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>267261</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
@@ -4666,7 +8826,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11260231" y="2588559"/>
+          <a:off x="13647084" y="2588559"/>
           <a:ext cx="1367118" cy="359149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4708,14 +8868,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267260</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>267261</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -4732,7 +8892,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11260231" y="4471147"/>
+          <a:off x="13647084" y="4471147"/>
           <a:ext cx="1367118" cy="359149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4774,14 +8934,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267260</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>267261</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -4798,7 +8958,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11260231" y="4941794"/>
+          <a:off x="13647084" y="4941794"/>
           <a:ext cx="1367118" cy="359149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4848,14 +9008,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>672354</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>324972</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267261</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603438</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>179574</xdr:rowOff>
     </xdr:to>
@@ -4875,7 +9035,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10857800" y="1895055"/>
+          <a:off x="13244653" y="1895055"/>
           <a:ext cx="526397" cy="278466"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -4906,14 +9066,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267260</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>179575</xdr:rowOff>
     </xdr:to>
@@ -4933,7 +9093,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10622476" y="2130379"/>
+          <a:off x="13009329" y="2130379"/>
           <a:ext cx="997044" cy="278466"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -4964,14 +9124,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>672354</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>324972</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267261</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603438</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>179574</xdr:rowOff>
     </xdr:to>
@@ -4991,7 +9151,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10387153" y="2365702"/>
+          <a:off x="12774006" y="2365702"/>
           <a:ext cx="1467691" cy="278466"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -5022,14 +9182,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267260</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>179575</xdr:rowOff>
     </xdr:to>
@@ -5049,7 +9209,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10151829" y="2601026"/>
+          <a:off x="12538682" y="2601026"/>
           <a:ext cx="1938338" cy="278466"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -5080,14 +9240,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>672354</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>324972</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267261</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603438</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>179574</xdr:rowOff>
     </xdr:to>
@@ -5107,7 +9267,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9916506" y="2836349"/>
+          <a:off x="12303359" y="2836349"/>
           <a:ext cx="2408985" cy="278466"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -5138,14 +9298,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267260</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>179575</xdr:rowOff>
     </xdr:to>
@@ -5165,7 +9325,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9681182" y="3071673"/>
+          <a:off x="12068035" y="3071673"/>
           <a:ext cx="2879632" cy="278466"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -5196,14 +9356,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>672354</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>324972</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267261</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603438</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>179574</xdr:rowOff>
     </xdr:to>
@@ -5223,7 +9383,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9445859" y="3306996"/>
+          <a:off x="11832712" y="3306996"/>
           <a:ext cx="3350279" cy="278466"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -5254,14 +9414,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>267260</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>603437</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>179575</xdr:rowOff>
     </xdr:to>
@@ -5281,7 +9441,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9210535" y="3542320"/>
+          <a:off x="11597388" y="3542320"/>
           <a:ext cx="3820926" cy="278466"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -5437,10 +9597,802 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="コネクタ: カギ線 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AEC57A-5DDD-4295-8FCE-43027719B26A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="99" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7396163" y="-604837"/>
+          <a:ext cx="402851" cy="3742764"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179855</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="正方形/長方形 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D97A86E-ACD5-4B9E-982A-5778E4482DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8785411" y="1467971"/>
+          <a:ext cx="1367118" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>請求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>支払い</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431939</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638738</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>173726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="コネクタ: カギ線 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88A1C51-EC4F-474B-84D6-BC3243B7C4D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="134" idx="1"/>
+          <a:endCxn id="19" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8007115" y="4404191"/>
+          <a:ext cx="206799" cy="5359"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431939</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638740</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>173726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="コネクタ: カギ線 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28C6D26-7753-4FC3-94AC-C6A56D7E79B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="171" idx="1"/>
+          <a:endCxn id="20" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8007115" y="4874836"/>
+          <a:ext cx="206801" cy="5361"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431939</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>173726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="コネクタ: カギ線 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E889B7A-F36E-416C-84C2-46598C1C80BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="2"/>
+          <a:endCxn id="21" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6976180" y="2858054"/>
+          <a:ext cx="3523725" cy="1461856"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431938</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>173728</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="コネクタ: カギ線 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE4E28D-9B86-43B0-AEA9-75E6A791B88F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="2"/>
+          <a:endCxn id="22" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6505532" y="3328702"/>
+          <a:ext cx="4465020" cy="1461856"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431939</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179573</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="コネクタ: カギ線 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3E74B2-AAFD-4398-81B2-C4E5FD81334D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="2"/>
+          <a:endCxn id="23" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6267286" y="3566948"/>
+          <a:ext cx="4941513" cy="1461856"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431938</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>179574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="コネクタ: カギ線 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D845EF-E279-4B60-8284-0976C6620DF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="2"/>
+          <a:endCxn id="24" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6031962" y="3802272"/>
+          <a:ext cx="5412160" cy="1461856"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431939</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>179573</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="コネクタ: カギ線 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E35DED-E62C-465D-B11D-EF468826F26B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="2"/>
+          <a:endCxn id="25" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5796639" y="4037595"/>
+          <a:ext cx="5882807" cy="1461856"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638737</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>246531</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>112619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="正方形/長方形 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B702023B-053E-417E-A759-8F9811F5A186}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8213913" y="4224617"/>
+          <a:ext cx="974912" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>請求一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638739</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>224115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>246533</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="正方形/長方形 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C63F7D-1B07-4FD1-8A2F-992B50A91A78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8213915" y="4695262"/>
+          <a:ext cx="974912" cy="359149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入金一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>246531</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168369</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="205" name="コネクタ: カギ線 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37315FE7-770C-4CCF-ABD3-772A67AB3FBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="2"/>
+          <a:endCxn id="134" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8040362" y="2975584"/>
+          <a:ext cx="2577072" cy="280145"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>246534</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168366</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="208" name="コネクタ: カギ線 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A48E272-C317-4B92-9664-D85BF4AD9F55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="2"/>
+          <a:endCxn id="171" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7805041" y="3210907"/>
+          <a:ext cx="3047717" cy="280143"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5494,7 +10446,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5548,7 +10500,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5602,7 +10554,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5656,7 +10608,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5710,7 +10662,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5758,7 +10710,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6102,11 +11054,1752 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F0218A-2876-425E-A7A5-552FBEB19258}">
+  <dimension ref="B30:Q57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="30" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B32" s="1"/>
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B34" s="1"/>
+      <c r="C34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B36" s="1"/>
+      <c r="C36" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B38" s="1"/>
+      <c r="C38" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B39" s="1"/>
+      <c r="C39" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B40" s="1"/>
+      <c r="C40" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B41" s="1"/>
+      <c r="C41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B42" s="1"/>
+      <c r="C42" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B43" s="1"/>
+      <c r="C43" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B44" s="1"/>
+      <c r="C44" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B46" s="1"/>
+      <c r="C46" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B47" s="1"/>
+      <c r="C47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B48" s="1"/>
+      <c r="C48" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B50" s="1"/>
+      <c r="C50" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B51" s="1"/>
+      <c r="C51" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B53" s="1"/>
+      <c r="C53" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B54" s="1"/>
+      <c r="C54" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B55" s="1"/>
+      <c r="C55" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B56" s="1"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A8F677-D733-4694-B603-47433D6852D5}">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="0.75" customWidth="1"/>
+    <col min="2" max="11" width="8.625" customWidth="1"/>
+    <col min="12" max="12" width="0.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AB4CE7-84FA-4640-84AE-00C7F8661347}">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="0.75" customWidth="1"/>
+    <col min="2" max="11" width="8.625" customWidth="1"/>
+    <col min="12" max="12" width="0.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C52D4D-512C-4363-9ACA-1F446B50A9C2}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6121,7 +12814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0FFBDD-FC39-4CE9-A2F0-6128A8180FDE}">
   <dimension ref="A1:L39"/>
   <sheetViews>
@@ -6706,12 +13399,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A89B17-349D-4A5B-A0D1-1EF2A70E41DD}">
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7289,12 +13982,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A4D1B-7B75-4202-8644-C78199D009C0}">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7888,7 +14581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641247DF-FE5E-4F72-9D13-A9A387D6CD1C}">
   <dimension ref="A1:L39"/>
   <sheetViews>
@@ -8513,7 +15206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E920FE-13D7-43A3-AC97-8E73927CD624}">
   <dimension ref="A1:L39"/>
   <sheetViews>
@@ -9126,11 +15819,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E51959-CC6F-49DC-A718-7014EE54AAF3}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -9705,12 +16398,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F1B422-7427-4B28-A9F2-E6CE214A07E5}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10099,7 +16792,7 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="10" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -10114,7 +16807,7 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="2"/>
@@ -10128,7 +16821,9 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
+      <c r="B29" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="D29" s="10"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -10141,7 +16836,9 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="D30" s="10"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -10154,7 +16851,9 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
+      <c r="B31" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="D31" s="10"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -10167,7 +16866,9 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
+      <c r="B32" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="D32" s="10"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -10180,7 +16881,9 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="10" t="s">
+        <v>94</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="10"/>
       <c r="E33" s="2"/>
@@ -10194,7 +16897,9 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="10"/>
       <c r="E34" s="2"/>
@@ -10208,7 +16913,9 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="10"/>
       <c r="E35" s="2"/>
@@ -10222,7 +16929,9 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="10"/>
       <c r="E36" s="2"/>
@@ -10236,7 +16945,9 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -10251,7 +16962,7 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="10" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -10266,7 +16977,9 @@
     </row>
     <row r="39" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
